--- a/mathTransformed/HMPSTT_(2016-11-02)_24_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-11-02)_24_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -484,6 +489,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Sri Mahantesh High School Kamalapur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -511,6 +521,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S BelagaliHubli</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -538,6 +553,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>S P H S Honnapur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -565,6 +585,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S UgginakeriKalaghatagi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -592,6 +617,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Sree Y V M H School MorabNavalgund</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -619,6 +649,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. High School Shivapur Kalaghatagi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -646,6 +681,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S Gandhinagar</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -673,6 +713,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S ShisvinahalliNavalgund</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -700,6 +745,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S NalawadiNavalgund</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -727,6 +777,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S AdaragunchiHubballi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -754,6 +809,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Nehru Comp. PU CollegeHebballi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -781,6 +841,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S Shivalli</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -808,6 +873,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S Devarahubballi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -835,6 +905,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S Maradagi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -862,6 +937,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Govt. High SchoolDevikoppaKalaghatagi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Dharawad</t>
         </is>
       </c>
@@ -889,6 +969,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Govt. High SchoolByalyalNavalgund</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -916,6 +1001,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S Narendra</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -941,7 +1031,8 @@
           <t>SHIVA KUMAR N</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Govt. Adarsha Vidyalaya Dharwad</t>
         </is>
@@ -970,6 +1061,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Pandit Nehru High School ShiraguppiHubli</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -997,6 +1093,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>H M H S Mugad</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1024,6 +1125,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S ShirurNavalgund</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1051,6 +1157,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>S J A N High School Navalgund</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1072,6 +1183,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Shri Durgadevi High School Dajibanpeth Hubballi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1098,6 +1214,11 @@
         </is>
       </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>G H S KuruvinakoppaKalaghatagi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Dharwad</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-11-02)_24_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-11-02)_24_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,7 +942,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dharawad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -1031,10 +1031,9 @@
           <t>SHIVA KUMAR N</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Govt. Adarsha Vidyalaya Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
